--- a/topic_3_img/Topic 3 Sol.xlsx
+++ b/topic_3_img/Topic 3 Sol.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="1_receivables" sheetId="1" state="visible" r:id="rId3"/>
@@ -212,13 +212,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$$-409]#,##0;[RED]\-[$$-409]#,##0"/>
     <numFmt numFmtId="166" formatCode="#,##0\ [$€-C0A];[RED]\-#,##0\ [$€-C0A]"/>
-    <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -272,17 +271,13 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="0"/>
     </font>
@@ -371,19 +366,19 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -412,11 +407,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -448,67 +439,55 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -535,96 +514,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1348560</xdr:colOff>
+      <xdr:colOff>1347840</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>69840</xdr:rowOff>
+      <xdr:rowOff>69120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="0" name="Text Frame 4"/>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="326160" y="60480"/>
-          <a:ext cx="3460680" cy="1147320"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>Nov 1: "Silvana eTravel" provides services worth $1,000 on credit to customers.</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>The company expects to collect the money in 90 days but estimates that 5% of the credit sales will be uncollectible. </a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>1) What is the impact on the financial statements of the sale and collection risk for this year?</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>533520</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>89280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>3960</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>97920</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="Text Frame 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="533520" y="89280"/>
-          <a:ext cx="9254520" cy="4866480"/>
+          <a:ext cx="3459960" cy="1146600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -651,315 +553,72 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>1) During a period of rising inventory costs and stable output prices, describe how net income and total assets would change depending upon whether LIFO or FIFO is applied in the company.</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>2) Describe how your answer would change if the company is experiencing declining inventory costs and stable output prices.</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>3) Discuss the corporate income tax implication of both inventory accounting methods.</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>Solution:</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>1) During a period of rising inventory costs and stable output prices:</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>A company using the LIFO inventory valuation method would show lower net income than the FIFO method. This is because LIFO assumes that the most recent and, thus, more expensive inventory is sold first. Consequently, the cost of goods sold (COGS) would be higher, reducing the gross profit and net income (assuming other expenses remain constant).</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>In terms of total assets, LIFO would also result in lower total assets compared to FIFO. The remaining inventory on the balance sheet under LIFO would consist of older, less expensive items, resulting in a lower total asset value.</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>2) In a scenario of declining inventory costs and stable output prices:</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>If a company uses LIFO, it would show higher net income compared to FIFO. This is because LIFO assumes the most recent (and now less expensive) inventory is sold first. This leads to a lower COGS, thus resulting in higher gross profit and net income.</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>In terms of total assets, LIFO would also result in higher total assets compared to FIFO. The remaining inventory on the balance sheet under LIFO would consist of the older, more expensive inventory, hence increasing the total asset value.</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>3) It's worth mentioning that the choice between LIFO and FIFO is not just a matter of economics but also a strategic decision with significant tax implications. Using LIFO during periods of rising prices can help a company reduce its tax liability, while FIFO can boost reported earnings and assets, which could benefit the company's market perception and obtain financing.</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>Nov 1: "Silvana eTravel" provides services worth $1,000 on credit to customers.</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>The company expects to collect the money in 90 days but estimates that 5% of the credit sales will be uncollectible. </a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>1) What is the impact on the financial statements of the sale and collection risk for this year?</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>2) What if the customers just pay $800 of their debt?</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -970,30 +629,30 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>767880</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:colOff>533520</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>89280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>752400</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>69120</xdr:rowOff>
+      <xdr:colOff>3240</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>97200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Frame 2"/>
+        <xdr:cNvPr id="1" name="Text Frame 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="767880" y="178200"/>
-          <a:ext cx="10866600" cy="1510200"/>
+          <a:off x="533520" y="89280"/>
+          <a:ext cx="9253800" cy="4865760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1026,7 +685,7 @@
               </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
-            <a:t>Imagine you own an ice cream shop and have purchased a specially adapted car for $ 10,000 to bring ice cream to a different location and sell it. The car has a useful life of 10 years, after which you expect it to sell by $ 2,000. You report under IFRS.</a:t>
+            <a:t>1) During a period of rising inventory costs and stable output prices, describe how net income and total assets would change depending upon whether LIFO or FIFO is applied in the company.</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1045,7 +704,7 @@
               </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
-            <a:t>1) compute the year depreciation expense to allocate the cost of the car over its useful life. Assume a straight-line depreciation method.</a:t>
+            <a:t>2) Describe how your answer would change if the company is experiencing declining inventory costs and stable output prices.</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1064,8 +723,18 @@
               </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
-            <a:t>2) Year 8: A new regulation in your city impedes selling ice creams on the streets. You check in Wallapop similar cars in other cities and expect to sell the car at $ 1,000. How much should be the impairment loss that year? Assume selling cost to be zero (nor Wallapop fees nor taxes).</a:t>
-          </a:r>
+            <a:t>3) Discuss the corporate income tax implication of both inventory accounting methods.</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
@@ -1083,8 +752,18 @@
               </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
-            <a:t>3) In December of the 8th year, the financial statement contains the information below. Compute the impact of the impairment. Discuss the incentives of the owner (you) for postponing the impairment. </a:t>
-          </a:r>
+            <a:t>Solution:</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
@@ -1102,7 +781,7 @@
               </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
-            <a:t>4) How your conclusion change if the a CEO is hired to run the company and her compensation package increases with the reported net income?</a:t>
+            <a:t>1) During a period of rising inventory costs and stable output prices:</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1131,8 +810,183 @@
               </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
+            <a:t>A company using the LIFO inventory valuation method would show lower net income than the FIFO method. This is because LIFO assumes that the most recent and, thus, more expensive inventory is sold first. Consequently, the cost of goods sold (COGS) would be higher, reducing the gross profit and net income (assuming other expenses remain constant).</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>In terms of total assets, LIFO would also result in lower total assets compared to FIFO. The remaining inventory on the balance sheet under LIFO would consist of older, less expensive items, resulting in a lower total asset value.</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>2) In a scenario of declining inventory costs and stable output prices:</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>If a company uses LIFO, it would show higher net income compared to FIFO. This is because LIFO assumes the most recent (and now less expensive) inventory is sold first. This leads to a lower COGS, thus resulting in higher gross profit and net income.</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>In terms of total assets, LIFO would also result in higher total assets compared to FIFO. The remaining inventory on the balance sheet under LIFO would consist of the older, more expensive inventory, hence increasing the total asset value.</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>3) It's worth mentioning that the choice between LIFO and FIFO is not just a matter of economics but also a strategic decision with significant tax implications. Using LIFO during periods of rising prices can help a company reduce its tax liability, while FIFO can boost reported earnings and assets, which could benefit the company's market perception and obtain financing.</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
@@ -1141,28 +995,33 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>707400</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>767880</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>16200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>356040</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>160200</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>751680</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>68400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Text Frame 3"/>
+        <xdr:cNvPr id="2" name="Text Frame 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="707400" y="12306240"/>
-          <a:ext cx="6454080" cy="1779480"/>
+          <a:off x="767880" y="178200"/>
+          <a:ext cx="10865880" cy="1509480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1190,6 +1049,178 @@
           </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>Imagine you own an ice cream shop and have purchased a specially adapted car for $ 10,000 to bring ice cream to a different location and sell it. The car has a useful life of 10 years, after which you expect it to sell by $ 2,000. You report under IFRS.</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>1) compute the year depreciation expense to allocate the cost of the car over its useful life. Assume a straight-line depreciation method.</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>2) Year 8: A new regulation in your city impedes selling ice creams on the streets. You check in Wallapop similar cars in other cities and expect to sell the car at $ 1,000. How much should be the impairment loss that year? Assume selling cost to be zero (nor Wallapop fees nor taxes).</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>3) In December of the 8th year, the financial statement contains the information below. Compute the impact of the impairment. Discuss the incentives of the owner (you) for postponing the impairment. </a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>4) How your conclusion change if the a CEO is hired to run the company and her compensation package increases with the reported net income?</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>707400</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>355320</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>159480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Text Frame 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="707400" y="12306240"/>
+          <a:ext cx="6453360" cy="1778760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>In conclusion, the impairment almost depletes net income in the 8th year.</a:t>
@@ -1206,6 +1237,9 @@
           </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>In terms of solvency or credit conditions, it is not so bad (students could compute solvency and liquidity ratio).</a:t>
@@ -1222,6 +1256,9 @@
           </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>So, unless some debt covenant is violated, the owner is not incentivized to postpone the impairment.</a:t>
@@ -1248,6 +1285,9 @@
           </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>Part 4:</a:t>
@@ -1264,6 +1304,9 @@
           </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>However, an interesting case is the one about hired CEOs with annual bonuses that depend on the reported income. In that case, the CEOs would be strongly incentivized to postpone the impairment.</a:t>
@@ -1458,34 +1501,32 @@
   </sheetPr>
   <dimension ref="B10:M40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B19" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M37" activeCellId="0" sqref="M37"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="28.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.53"/>
   </cols>
   <sheetData>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="3" t="s">
@@ -1494,7 +1535,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="2"/>
+      <c r="H12" s="1"/>
       <c r="I12" s="3" t="s">
         <v>2</v>
       </c>
@@ -1508,12 +1549,12 @@
       <c r="D13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="1"/>
       <c r="F13" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="6"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="1"/>
       <c r="I13" s="7" t="s">
         <v>6</v>
       </c>
@@ -1530,9 +1571,9 @@
       <c r="E14" s="9" t="n">
         <v>1000</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="1"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="2"/>
+      <c r="H14" s="1"/>
       <c r="I14" s="7" t="s">
         <v>9</v>
       </c>
@@ -1549,11 +1590,11 @@
       <c r="E15" s="9" t="n">
         <v>-50</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="1"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="2"/>
+      <c r="H15" s="1"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="11"/>
+      <c r="J15" s="6"/>
       <c r="L15" s="7"/>
       <c r="M15" s="8"/>
     </row>
@@ -1564,7 +1605,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="6"/>
-      <c r="H16" s="2"/>
+      <c r="H16" s="1"/>
       <c r="I16" s="4" t="s">
         <v>12</v>
       </c>
@@ -1577,9 +1618,9 @@
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="7"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="12"/>
+      <c r="F17" s="11"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="2"/>
+      <c r="H17" s="1"/>
       <c r="I17" s="7" t="s">
         <v>14</v>
       </c>
@@ -1590,20 +1631,20 @@
       <c r="M17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="13"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="17" t="s">
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="18"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="18"/>
+      <c r="J18" s="17"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="17"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1614,7 +1655,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="2"/>
+      <c r="H23" s="1"/>
       <c r="I23" s="3" t="s">
         <v>2</v>
       </c>
@@ -1628,12 +1669,12 @@
       <c r="D24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="1"/>
       <c r="F24" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G24" s="6"/>
-      <c r="H24" s="2"/>
+      <c r="H24" s="1"/>
       <c r="I24" s="7" t="s">
         <v>6</v>
       </c>
@@ -1650,9 +1691,9 @@
       <c r="E25" s="9" t="n">
         <v>800</v>
       </c>
-      <c r="F25" s="2"/>
+      <c r="F25" s="1"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="2"/>
+      <c r="H25" s="1"/>
       <c r="I25" s="7"/>
       <c r="J25" s="8"/>
       <c r="L25" s="7" t="s">
@@ -1669,9 +1710,9 @@
       <c r="E26" s="9" t="n">
         <v>-800</v>
       </c>
-      <c r="F26" s="2"/>
+      <c r="F26" s="1"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="2"/>
+      <c r="H26" s="1"/>
       <c r="I26" s="7"/>
       <c r="J26" s="8"/>
       <c r="L26" s="7"/>
@@ -1688,7 +1729,7 @@
         <v>11</v>
       </c>
       <c r="G27" s="6"/>
-      <c r="H27" s="2"/>
+      <c r="H27" s="1"/>
       <c r="I27" s="4" t="s">
         <v>12</v>
       </c>
@@ -1701,9 +1742,9 @@
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D28" s="7"/>
       <c r="E28" s="9"/>
-      <c r="F28" s="12"/>
+      <c r="F28" s="11"/>
       <c r="G28" s="8"/>
-      <c r="H28" s="2"/>
+      <c r="H28" s="1"/>
       <c r="I28" s="7" t="s">
         <v>14</v>
       </c>
@@ -1714,20 +1755,20 @@
       <c r="M28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D29" s="13"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="17" t="s">
+      <c r="D29" s="12"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J29" s="18"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="18"/>
+      <c r="J29" s="17"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="17"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1738,7 +1779,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
-      <c r="H34" s="2"/>
+      <c r="H34" s="1"/>
       <c r="I34" s="3" t="s">
         <v>2</v>
       </c>
@@ -1752,12 +1793,12 @@
       <c r="D35" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="2"/>
+      <c r="E35" s="1"/>
       <c r="F35" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G35" s="6"/>
-      <c r="H35" s="2"/>
+      <c r="H35" s="1"/>
       <c r="I35" s="7" t="s">
         <v>6</v>
       </c>
@@ -1774,9 +1815,9 @@
       <c r="E36" s="9" t="n">
         <v>1000</v>
       </c>
-      <c r="F36" s="2"/>
+      <c r="F36" s="1"/>
       <c r="G36" s="8"/>
-      <c r="H36" s="2"/>
+      <c r="H36" s="1"/>
       <c r="I36" s="7"/>
       <c r="J36" s="8"/>
       <c r="L36" s="7" t="s">
@@ -1793,9 +1834,9 @@
       <c r="E37" s="9" t="n">
         <v>-1000</v>
       </c>
-      <c r="F37" s="2"/>
+      <c r="F37" s="1"/>
       <c r="G37" s="6"/>
-      <c r="H37" s="2"/>
+      <c r="H37" s="1"/>
       <c r="I37" s="7"/>
       <c r="J37" s="8"/>
       <c r="L37" s="7"/>
@@ -1812,7 +1853,7 @@
         <v>11</v>
       </c>
       <c r="G38" s="6"/>
-      <c r="H38" s="2"/>
+      <c r="H38" s="1"/>
       <c r="I38" s="4" t="s">
         <v>12</v>
       </c>
@@ -1825,9 +1866,9 @@
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D39" s="7"/>
       <c r="E39" s="9"/>
-      <c r="F39" s="12"/>
+      <c r="F39" s="11"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="2"/>
+      <c r="H39" s="1"/>
       <c r="I39" s="7" t="s">
         <v>14</v>
       </c>
@@ -1838,17 +1879,17 @@
       <c r="M39" s="8"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D40" s="13"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="17" t="s">
+      <c r="D40" s="12"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J40" s="18"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="18"/>
+      <c r="J40" s="17"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1886,7 +1927,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="19" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="18" width="11.57"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1907,451 +1948,451 @@
   </sheetPr>
   <dimension ref="A13:E74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A77" activeCellId="0" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.42"/>
   </cols>
   <sheetData>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="20"/>
+      <c r="C13" s="19"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="22" t="n">
+      <c r="C14" s="20" t="n">
         <v>15000</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="23"/>
+      <c r="C15" s="21"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="25" t="n">
+      <c r="C16" s="23" t="n">
         <v>15000</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="25" t="n">
+      <c r="C17" s="23" t="n">
         <v>5000</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="22" t="n">
+      <c r="C18" s="20" t="n">
         <f aca="false">C16+C17</f>
         <v>20000</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="23"/>
+      <c r="C19" s="21"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="28" t="n">
+      <c r="C20" s="26" t="n">
         <f aca="false">+C18+C14</f>
         <v>35000</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="23" t="n">
+      <c r="C21" s="21" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="25" t="n">
+      <c r="C22" s="23" t="n">
         <v>19000</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="25" t="n">
+      <c r="C23" s="23" t="n">
         <f aca="false">+C20-C22</f>
         <v>16000</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="28" t="n">
+      <c r="C24" s="26" t="n">
         <f aca="false">C23+C22</f>
         <v>35000</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="20"/>
+      <c r="C27" s="19"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="22" t="n">
+      <c r="C28" s="20" t="n">
         <v>2000</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="22" t="n">
+      <c r="C29" s="20" t="n">
         <f aca="false">C28*0.35</f>
         <v>700</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="22" t="n">
+      <c r="C30" s="20" t="n">
         <f aca="false">+C28-C29</f>
         <v>1300</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38" s="1" t="n">
         <f aca="false">10000-2000</f>
         <v>8000</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40" s="1" t="n">
         <f aca="false">C38/C39</f>
         <v>800</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E46" s="0" t="n">
+      <c r="E46" s="1" t="n">
         <f aca="false">10000-8*C40</f>
         <v>3600</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="0" t="n">
+      <c r="E47" s="1" t="n">
         <f aca="false">MAX(E48:E49)</f>
         <v>1000</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D48" s="0" t="s">
+      <c r="D48" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E48" s="0" t="n">
+      <c r="E48" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="29"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30" t="s">
+      <c r="B49" s="14"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="E49" s="30" t="n">
+      <c r="E49" s="27" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D50" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E50" s="0" t="n">
+      <c r="E50" s="1" t="n">
         <f aca="false">+E46-E47</f>
         <v>2600</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B52" s="31" t="s">
+      <c r="B52" s="28" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="20" t="s">
+      <c r="B56" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C56" s="20"/>
-      <c r="D56" s="32" t="s">
+      <c r="C56" s="19"/>
+      <c r="D56" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="E56" s="32" t="s">
+      <c r="E56" s="29" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C57" s="22" t="n">
+      <c r="C57" s="20" t="n">
         <f aca="false">+C28</f>
         <v>2000</v>
       </c>
-      <c r="D57" s="33" t="n">
+      <c r="D57" s="1" t="n">
         <f aca="false">-E50</f>
         <v>-2600</v>
       </c>
-      <c r="E57" s="22" t="n">
+      <c r="E57" s="20" t="n">
         <f aca="false">+C57+D57</f>
         <v>-600</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="21" t="s">
+      <c r="B58" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C58" s="22" t="n">
+      <c r="C58" s="20" t="n">
         <f aca="false">+C29</f>
         <v>700</v>
       </c>
-      <c r="D58" s="33" t="n">
+      <c r="D58" s="1" t="n">
         <f aca="false">+D57*35%</f>
         <v>-910</v>
       </c>
-      <c r="E58" s="22" t="n">
+      <c r="E58" s="20" t="n">
         <f aca="false">E57*0.35</f>
         <v>-210</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="21" t="s">
+      <c r="B59" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C59" s="22" t="n">
+      <c r="C59" s="20" t="n">
         <f aca="false">+C30</f>
         <v>1300</v>
       </c>
-      <c r="D59" s="33" t="n">
+      <c r="D59" s="1" t="n">
         <f aca="false">+D57-D58</f>
         <v>-1690</v>
       </c>
-      <c r="E59" s="22" t="n">
+      <c r="E59" s="20" t="n">
         <f aca="false">+E57-E58</f>
         <v>-390</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="20" t="s">
+      <c r="B61" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C61" s="20"/>
+      <c r="C61" s="19"/>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="21" t="s">
+      <c r="B63" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C63" s="22" t="n">
+      <c r="C63" s="20" t="n">
         <v>15000</v>
       </c>
-      <c r="E63" s="23" t="n">
+      <c r="E63" s="21" t="n">
         <f aca="false">+C63+D63</f>
         <v>15000</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="23"/>
-      <c r="E64" s="23"/>
+      <c r="C64" s="21"/>
+      <c r="E64" s="21"/>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="34" t="s">
+      <c r="B65" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C65" s="23" t="n">
+      <c r="C65" s="21" t="n">
         <v>15000</v>
       </c>
-      <c r="D65" s="33" t="n">
+      <c r="D65" s="1" t="n">
         <f aca="false">-E50</f>
         <v>-2600</v>
       </c>
-      <c r="E65" s="23" t="n">
+      <c r="E65" s="21" t="n">
         <f aca="false">+C65+D65</f>
         <v>12400</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="34" t="s">
+      <c r="B66" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="23" t="n">
+      <c r="C66" s="21" t="n">
         <v>5000</v>
       </c>
-      <c r="E66" s="23" t="n">
+      <c r="E66" s="21" t="n">
         <f aca="false">+C66+D66</f>
         <v>5000</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="26" t="s">
+      <c r="B67" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C67" s="22" t="n">
+      <c r="C67" s="20" t="n">
         <f aca="false">C65+C66</f>
         <v>20000</v>
       </c>
-      <c r="E67" s="22" t="n">
+      <c r="E67" s="20" t="n">
         <f aca="false">E65+E66</f>
         <v>17400</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="23"/>
-      <c r="E68" s="23"/>
+      <c r="C68" s="21"/>
+      <c r="E68" s="21"/>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="27" t="s">
+      <c r="B69" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C69" s="28" t="n">
+      <c r="C69" s="26" t="n">
         <f aca="false">+C67+C63</f>
         <v>35000</v>
       </c>
-      <c r="E69" s="22" t="n">
+      <c r="E69" s="20" t="n">
         <f aca="false">+E67+E63</f>
         <v>32400</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="21"/>
-      <c r="C70" s="22"/>
-      <c r="E70" s="22"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="20"/>
+      <c r="E70" s="20"/>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="21" t="s">
+      <c r="B71" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C71" s="23" t="n">
+      <c r="C71" s="21" t="n">
         <v>1000</v>
       </c>
-      <c r="D71" s="33" t="n">
+      <c r="D71" s="1" t="n">
         <f aca="false">+D58</f>
         <v>-910</v>
       </c>
-      <c r="E71" s="23" t="n">
+      <c r="E71" s="21" t="n">
         <f aca="false">+C71+D71</f>
         <v>90.0000000000001</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="34" t="s">
+      <c r="B72" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C72" s="23" t="n">
+      <c r="C72" s="21" t="n">
         <v>19000</v>
       </c>
-      <c r="E72" s="23" t="n">
+      <c r="E72" s="21" t="n">
         <f aca="false">+C72+D72</f>
         <v>19000</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="34" t="s">
+      <c r="B73" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C73" s="23" t="n">
+      <c r="C73" s="21" t="n">
         <f aca="false">+C69-C72-C71</f>
         <v>15000</v>
       </c>
-      <c r="D73" s="33" t="n">
+      <c r="D73" s="1" t="n">
         <f aca="false">+D59</f>
         <v>-1690</v>
       </c>
-      <c r="E73" s="23" t="n">
+      <c r="E73" s="21" t="n">
         <f aca="false">+C73+D73</f>
         <v>13310</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="27" t="s">
+      <c r="B74" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="28" t="n">
+      <c r="C74" s="26" t="n">
         <f aca="false">C73+C72+C71</f>
         <v>35000</v>
       </c>
-      <c r="E74" s="22" t="n">
+      <c r="E74" s="20" t="n">
         <f aca="false">E73+E72+E71</f>
         <v>32400</v>
       </c>
@@ -2381,7 +2422,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/topic_3_img/Topic 3 Sol.xlsx
+++ b/topic_3_img/Topic 3 Sol.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="52">
   <si>
     <t xml:space="preserve">Accounting events: sale and allowance for bad debt</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t xml:space="preserve">Allowance for doubtful accounts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net Receivables</t>
   </si>
   <si>
     <t xml:space="preserve">Liability</t>
@@ -366,7 +369,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -408,6 +411,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -514,9 +525,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1347840</xdr:colOff>
+      <xdr:colOff>1347120</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>69120</xdr:rowOff>
+      <xdr:rowOff>68400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -526,7 +537,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="326160" y="60480"/>
-          <a:ext cx="3459960" cy="1146600"/>
+          <a:ext cx="3459240" cy="1145880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -640,9 +651,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>3240</xdr:colOff>
+      <xdr:colOff>2520</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>97200</xdr:rowOff>
+      <xdr:rowOff>96480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -652,7 +663,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="533520" y="89280"/>
-          <a:ext cx="9253800" cy="4865760"/>
+          <a:ext cx="9253080" cy="4865040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1009,9 +1020,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>751680</xdr:colOff>
+      <xdr:colOff>750960</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>68400</xdr:rowOff>
+      <xdr:rowOff>67680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1021,7 +1032,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="767880" y="178200"/>
-          <a:ext cx="10865880" cy="1509480"/>
+          <a:ext cx="10865160" cy="1508760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1178,9 +1189,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>355320</xdr:colOff>
+      <xdr:colOff>354600</xdr:colOff>
       <xdr:row>86</xdr:row>
-      <xdr:rowOff>159480</xdr:rowOff>
+      <xdr:rowOff>158760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1190,7 +1201,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="707400" y="12306240"/>
-          <a:ext cx="6453360" cy="1778760"/>
+          <a:ext cx="6452640" cy="1778040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1501,8 +1512,8 @@
   </sheetPr>
   <dimension ref="B10:M40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B22" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J38" activeCellId="0" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1578,7 +1589,7 @@
         <v>9</v>
       </c>
       <c r="J14" s="8" t="n">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="8"/>
@@ -1599,30 +1610,35 @@
       <c r="M15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="7"/>
-      <c r="E16" s="9"/>
+      <c r="D16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="12" t="n">
+        <f aca="false">E15+E14</f>
+        <v>950</v>
+      </c>
       <c r="F16" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="1"/>
       <c r="I16" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J16" s="8"/>
       <c r="L16" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="7"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="11"/>
+      <c r="F17" s="13"/>
       <c r="G17" s="8"/>
       <c r="H17" s="1"/>
       <c r="I17" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J17" s="8" t="n">
         <v>-50</v>
@@ -1631,21 +1647,21 @@
       <c r="M17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" s="17"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="17"/>
+      <c r="I18" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="19"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="19"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1686,7 +1702,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E25" s="9" t="n">
         <v>800</v>
@@ -1697,7 +1713,7 @@
       <c r="I25" s="7"/>
       <c r="J25" s="8"/>
       <c r="L25" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M25" s="8" t="n">
         <v>800</v>
@@ -1726,27 +1742,32 @@
         <v>-150</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="1"/>
       <c r="I27" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J27" s="8"/>
       <c r="L27" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M27" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="7"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="11"/>
+      <c r="D28" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="12" t="n">
+        <f aca="false">E27+E26</f>
+        <v>-950</v>
+      </c>
+      <c r="F28" s="13"/>
       <c r="G28" s="8"/>
       <c r="H28" s="1"/>
       <c r="I28" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J28" s="8" t="n">
         <v>-150</v>
@@ -1755,21 +1776,21 @@
       <c r="M28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D29" s="12"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="15"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="17"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="J29" s="17"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="17"/>
+      <c r="I29" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="19"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="19"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1810,7 +1831,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D36" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E36" s="9" t="n">
         <v>1000</v>
@@ -1821,7 +1842,7 @@
       <c r="I36" s="7"/>
       <c r="J36" s="8"/>
       <c r="L36" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M36" s="8" t="n">
         <v>1000</v>
@@ -1850,27 +1871,32 @@
         <v>50</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="1"/>
       <c r="I38" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J38" s="8"/>
       <c r="L38" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M38" s="8"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D39" s="7"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="11"/>
+      <c r="D39" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="12" t="n">
+        <f aca="false">E38+E37</f>
+        <v>-950</v>
+      </c>
+      <c r="F39" s="13"/>
       <c r="G39" s="8"/>
       <c r="H39" s="1"/>
       <c r="I39" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J39" s="8" t="n">
         <v>50</v>
@@ -1879,17 +1905,17 @@
       <c r="M39" s="8"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D40" s="12"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="15"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="17"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="J40" s="17"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="17"/>
+      <c r="I40" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" s="19"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1927,7 +1953,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="18" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="20" width="11.57"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1959,138 +1985,138 @@
   </cols>
   <sheetData>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="19"/>
+      <c r="C13" s="21"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="20" t="n">
+        <v>21</v>
+      </c>
+      <c r="C14" s="22" t="n">
         <v>15000</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="21"/>
+      <c r="C15" s="23"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="23" t="n">
+      <c r="B16" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="25" t="n">
         <v>15000</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="23" t="n">
+      <c r="B17" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="25" t="n">
         <v>5000</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="20" t="n">
+      <c r="B18" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="22" t="n">
         <f aca="false">C16+C17</f>
         <v>20000</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="21"/>
+      <c r="C19" s="23"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="26" t="n">
+      <c r="B20" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="28" t="n">
         <f aca="false">+C18+C14</f>
         <v>35000</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="21" t="n">
+        <v>26</v>
+      </c>
+      <c r="C21" s="23" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="23" t="n">
+      <c r="B22" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="25" t="n">
         <v>19000</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="23" t="n">
+      <c r="B23" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="25" t="n">
         <f aca="false">+C20-C22</f>
         <v>16000</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="26" t="n">
+      <c r="C24" s="28" t="n">
         <f aca="false">C23+C22</f>
         <v>35000</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="19"/>
+      <c r="C27" s="21"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="20" t="n">
+        <v>29</v>
+      </c>
+      <c r="C28" s="22" t="n">
         <v>2000</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="20" t="n">
+        <v>30</v>
+      </c>
+      <c r="C29" s="22" t="n">
         <f aca="false">C28*0.35</f>
         <v>700</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="20" t="n">
+        <v>31</v>
+      </c>
+      <c r="C30" s="22" t="n">
         <f aca="false">+C28-C29</f>
         <v>1300</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C38" s="1" t="n">
         <f aca="false">10000-2000</f>
@@ -2099,7 +2125,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39" s="1" t="n">
         <v>10</v>
@@ -2107,7 +2133,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C40" s="1" t="n">
         <f aca="false">C38/C39</f>
@@ -2116,20 +2142,20 @@
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E46" s="1" t="n">
         <f aca="false">10000-8*C40</f>
@@ -2138,10 +2164,10 @@
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E47" s="1" t="n">
         <f aca="false">MAX(E48:E49)</f>
@@ -2150,28 +2176,28 @@
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D48" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E48" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="14"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E49" s="27" t="n">
+      <c r="B49" s="16"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E50" s="1" t="n">
         <f aca="false">+E46-E47</f>
@@ -2180,34 +2206,34 @@
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B52" s="28" t="s">
         <v>47</v>
+      </c>
+      <c r="B52" s="30" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="19" t="s">
+      <c r="B56" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C56" s="19"/>
-      <c r="D56" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="E56" s="29" t="s">
+      <c r="C56" s="21"/>
+      <c r="D56" s="31" t="s">
         <v>50</v>
+      </c>
+      <c r="E56" s="31" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C57" s="20" t="n">
+        <v>29</v>
+      </c>
+      <c r="C57" s="22" t="n">
         <f aca="false">+C28</f>
         <v>2000</v>
       </c>
@@ -2215,16 +2241,16 @@
         <f aca="false">-E50</f>
         <v>-2600</v>
       </c>
-      <c r="E57" s="20" t="n">
+      <c r="E57" s="22" t="n">
         <f aca="false">+C57+D57</f>
         <v>-600</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C58" s="20" t="n">
+        <v>30</v>
+      </c>
+      <c r="C58" s="22" t="n">
         <f aca="false">+C29</f>
         <v>700</v>
       </c>
@@ -2232,16 +2258,16 @@
         <f aca="false">+D57*35%</f>
         <v>-910</v>
       </c>
-      <c r="E58" s="20" t="n">
+      <c r="E58" s="22" t="n">
         <f aca="false">E57*0.35</f>
         <v>-210</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C59" s="20" t="n">
+        <v>31</v>
+      </c>
+      <c r="C59" s="22" t="n">
         <f aca="false">+C30</f>
         <v>1300</v>
       </c>
@@ -2249,129 +2275,129 @@
         <f aca="false">+D57-D58</f>
         <v>-1690</v>
       </c>
-      <c r="E59" s="20" t="n">
+      <c r="E59" s="22" t="n">
         <f aca="false">+E57-E58</f>
         <v>-390</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="19" t="s">
+      <c r="B61" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C61" s="19"/>
+      <c r="C61" s="21"/>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C63" s="20" t="n">
+        <v>21</v>
+      </c>
+      <c r="C63" s="22" t="n">
         <v>15000</v>
       </c>
-      <c r="E63" s="21" t="n">
+      <c r="E63" s="23" t="n">
         <f aca="false">+C63+D63</f>
         <v>15000</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="21"/>
-      <c r="E64" s="21"/>
+      <c r="C64" s="23"/>
+      <c r="E64" s="23"/>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C65" s="21" t="n">
+      <c r="B65" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65" s="23" t="n">
         <v>15000</v>
       </c>
       <c r="D65" s="1" t="n">
         <f aca="false">-E50</f>
         <v>-2600</v>
       </c>
-      <c r="E65" s="21" t="n">
+      <c r="E65" s="23" t="n">
         <f aca="false">+C65+D65</f>
         <v>12400</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C66" s="21" t="n">
+      <c r="B66" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" s="23" t="n">
         <v>5000</v>
       </c>
-      <c r="E66" s="21" t="n">
+      <c r="E66" s="23" t="n">
         <f aca="false">+C66+D66</f>
         <v>5000</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C67" s="20" t="n">
+      <c r="B67" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" s="22" t="n">
         <f aca="false">C65+C66</f>
         <v>20000</v>
       </c>
-      <c r="E67" s="20" t="n">
+      <c r="E67" s="22" t="n">
         <f aca="false">E65+E66</f>
         <v>17400</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="21"/>
-      <c r="E68" s="21"/>
+      <c r="C68" s="23"/>
+      <c r="E68" s="23"/>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C69" s="26" t="n">
+      <c r="B69" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" s="28" t="n">
         <f aca="false">+C67+C63</f>
         <v>35000</v>
       </c>
-      <c r="E69" s="20" t="n">
+      <c r="E69" s="22" t="n">
         <f aca="false">+E67+E63</f>
         <v>32400</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="2"/>
-      <c r="C70" s="20"/>
-      <c r="E70" s="20"/>
+      <c r="C70" s="22"/>
+      <c r="E70" s="22"/>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C71" s="21" t="n">
+        <v>26</v>
+      </c>
+      <c r="C71" s="23" t="n">
         <v>1000</v>
       </c>
       <c r="D71" s="1" t="n">
         <f aca="false">+D58</f>
         <v>-910</v>
       </c>
-      <c r="E71" s="21" t="n">
+      <c r="E71" s="23" t="n">
         <f aca="false">+C71+D71</f>
         <v>90.0000000000001</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C72" s="21" t="n">
+      <c r="B72" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72" s="23" t="n">
         <v>19000</v>
       </c>
-      <c r="E72" s="21" t="n">
+      <c r="E72" s="23" t="n">
         <f aca="false">+C72+D72</f>
         <v>19000</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C73" s="21" t="n">
+      <c r="B73" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73" s="23" t="n">
         <f aca="false">+C69-C72-C71</f>
         <v>15000</v>
       </c>
@@ -2379,20 +2405,20 @@
         <f aca="false">+D59</f>
         <v>-1690</v>
       </c>
-      <c r="E73" s="21" t="n">
+      <c r="E73" s="23" t="n">
         <f aca="false">+C73+D73</f>
         <v>13310</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="25" t="s">
+      <c r="B74" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="26" t="n">
+      <c r="C74" s="28" t="n">
         <f aca="false">C73+C72+C71</f>
         <v>35000</v>
       </c>
-      <c r="E74" s="20" t="n">
+      <c r="E74" s="22" t="n">
         <f aca="false">E73+E72+E71</f>
         <v>32400</v>
       </c>
